--- a/backend/data/baseftp.xlsx
+++ b/backend/data/baseftp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mgcontecnica1-my.sharepoint.com/personal/rjuan_mgcontecnica_com_br/Documents/Área de Trabalho/Projeto1/Consulta FTP/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{861D0D9D-EC05-44EB-8404-421B0A7E7A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B99D4DC-FB29-45FA-A483-E27B18C9F32E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{861D0D9D-EC05-44EB-8404-421B0A7E7A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39A67259-7DB2-4565-A8E2-20AD40112AB1}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{86C67ABE-0B31-4513-B80D-A018306EB256}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Pendências com FTP (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pendências com FTP (2)'!$A$1:$I$297</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pendências com FTP (2)'!$A$1:$I$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="155">
   <si>
     <t>SP</t>
   </si>
@@ -56,18 +56,12 @@
     <t>VIOLETA</t>
   </si>
   <si>
-    <t>MERCADO VIOLETA (FILIAL 09)</t>
-  </si>
-  <si>
     <t>RELATÓRIO DO CAIXA</t>
   </si>
   <si>
     <t>RELATÓRIO DE CONTAS PAGAS</t>
   </si>
   <si>
-    <t>RELATÓRIO DE CONTAS A RECEBER</t>
-  </si>
-  <si>
     <t>RELATÓRIO DE CARTÕES</t>
   </si>
   <si>
@@ -83,75 +77,18 @@
     <t>COMPOSIÇÃO DE ALUGUEL</t>
   </si>
   <si>
-    <t>MERCADO VIOLETA (FILIAL 08)</t>
-  </si>
-  <si>
     <t>INFORME DE RENDIMENTO APLICAÇÃO FINANCEIRA TRIMESTRAL</t>
   </si>
   <si>
-    <t>APLICAÇÃO FINANCEIRA</t>
-  </si>
-  <si>
     <t>Holding</t>
   </si>
   <si>
-    <t>ZEMAR LOCACAO DE EQUIPAMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>58178-5.xls</t>
-  </si>
-  <si>
-    <t>58178-5_AplicAut.xls</t>
-  </si>
-  <si>
     <t xml:space="preserve">EXTRATO APLICAÇÃO FINANCEIRA </t>
   </si>
   <si>
-    <t>MERCADO VIOLETA (FILIAL 07)</t>
-  </si>
-  <si>
-    <t>MERCADO VIOLETA LTDA (FILIAL 06)</t>
-  </si>
-  <si>
-    <t>MERCADO VIOLETA LTDA  (FL 05)</t>
-  </si>
-  <si>
-    <t>MERCADO VIOLETA FILIAL 04</t>
-  </si>
-  <si>
     <t>RELATÓRIO DE RECEBIMENTOS</t>
   </si>
   <si>
-    <t>MERCADO VIOLETA (FILIAL 03)</t>
-  </si>
-  <si>
-    <t>MERCADO VIOLETA F2</t>
-  </si>
-  <si>
-    <t>MERCADO VIOLETA (F1)</t>
-  </si>
-  <si>
-    <t>ZELUPA PARTICIPAÇÕES</t>
-  </si>
-  <si>
-    <t>INFORME DE RENDIMENTO APLICAÇÃO FINANCEIRA MENSAL</t>
-  </si>
-  <si>
-    <t>27079-3.xls</t>
-  </si>
-  <si>
-    <t>10.2025_ExtratoBB_Zelupa.pdf</t>
-  </si>
-  <si>
-    <t>27079-3_AplicAut.xls</t>
-  </si>
-  <si>
-    <t>10.2025_ExtratoBB_Zelupa_Aplic.pdf</t>
-  </si>
-  <si>
-    <t>MADUCA PARTICIPAÇÕES</t>
-  </si>
-  <si>
     <t>ARZINDA ADMINISTRAÇÃO</t>
   </si>
   <si>
@@ -567,24 +504,6 @@
   </si>
   <si>
     <t>C:\Users\rjuan\Downloads\FTP\ftpvioleta\14272202000105 - 2248 - ARZINDA ADMINISTRACAO\CONTABIL\2025\10 - OUTUBRO\EXTRATO BANCARIO\27074-4.xls</t>
-  </si>
-  <si>
-    <t>C:\Users\rjuan\Downloads\FTP\ftpvioleta\14314483000103 - 2251 - ZELUPA PARTICIPACOES\CONTABIL\2025\10 - OUTUBRO\EXTRATO APLICACAO FINANCEIRA\10.2025_ExtratoBB_Zelupa_Aplic.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\rjuan\Downloads\FTP\ftpvioleta\14314483000103 - 2251 - ZELUPA PARTICIPACOES\CONTABIL\2025\10 - OUTUBRO\EXTRATO APLICACAO FINANCEIRA\27079-3_AplicAut.xls</t>
-  </si>
-  <si>
-    <t>C:\Users\rjuan\Downloads\FTP\ftpvioleta\14314483000103 - 2251 - ZELUPA PARTICIPACOES\CONTABIL\2025\10 - OUTUBRO\EXTRATO BANCARIO\10.2025_ExtratoBB_Zelupa.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\rjuan\Downloads\FTP\ftpvioleta\14314483000103 - 2251 - ZELUPA PARTICIPACOES\CONTABIL\2025\10 - OUTUBRO\EXTRATO BANCARIO\27079-3.xls</t>
-  </si>
-  <si>
-    <t>C:\Users\rjuan\Downloads\FTP\ftpvioleta\50859241000169 - 5199 - ZEMAR LOCACAO DE EQUIPAMENTOS LTDA\CONTABIL\2025\10 - OUTUBRO\EXTRATO APLICACAO FINANCEIRA\58178-5_AplicAut.xls</t>
-  </si>
-  <si>
-    <t>C:\Users\rjuan\Downloads\FTP\ftpvioleta\50859241000169 - 5199 - ZEMAR LOCACAO DE EQUIPAMENTOS LTDA\CONTABIL\2025\10 - OUTUBRO\EXTRATO BANCARIO\58178-5.xls</t>
   </si>
 </sst>
 </file>
@@ -667,6 +586,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -954,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA36555-E494-4A66-B505-97FB129EE863}">
-  <dimension ref="A1:I297"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,31 +897,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1006,7 +929,7 @@
         <v>1267</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -1015,13 +938,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>1</v>
@@ -1035,7 +958,7 @@
         <v>1267</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -1044,13 +967,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1</v>
@@ -1064,7 +987,7 @@
         <v>1267</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -1073,13 +996,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>1</v>
@@ -1093,7 +1016,7 @@
         <v>1267</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -1102,13 +1025,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>1</v>
@@ -1122,7 +1045,7 @@
         <v>1267</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -1131,13 +1054,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1</v>
@@ -1151,7 +1074,7 @@
         <v>1267</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -1160,13 +1083,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>1</v>
@@ -1180,7 +1103,7 @@
         <v>1267</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -1189,13 +1112,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1</v>
@@ -1209,7 +1132,7 @@
         <v>1267</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -1218,13 +1141,13 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
@@ -1238,7 +1161,7 @@
         <v>1267</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -1247,13 +1170,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>1</v>
@@ -1267,7 +1190,7 @@
         <v>1267</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -1276,13 +1199,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>1</v>
@@ -1296,7 +1219,7 @@
         <v>1267</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -1305,13 +1228,13 @@
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>1</v>
@@ -1325,7 +1248,7 @@
         <v>1267</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -1334,13 +1257,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>1</v>
@@ -1354,7 +1277,7 @@
         <v>1267</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1363,13 +1286,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>1</v>
@@ -1383,7 +1306,7 @@
         <v>1267</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -1392,13 +1315,13 @@
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
@@ -1412,7 +1335,7 @@
         <v>1267</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -1421,13 +1344,13 @@
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>1</v>
@@ -1441,7 +1364,7 @@
         <v>1267</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -1450,13 +1373,13 @@
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>1</v>
@@ -1470,7 +1393,7 @@
         <v>1267</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -1479,13 +1402,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>1</v>
@@ -1499,7 +1422,7 @@
         <v>1267</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -1508,13 +1431,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>1</v>
@@ -1528,7 +1451,7 @@
         <v>1267</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
@@ -1537,13 +1460,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>1</v>
@@ -1557,7 +1480,7 @@
         <v>1267</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -1566,13 +1489,13 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>1</v>
@@ -1586,7 +1509,7 @@
         <v>1267</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -1595,13 +1518,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>1</v>
@@ -1615,7 +1538,7 @@
         <v>1267</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -1624,13 +1547,13 @@
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>1</v>
@@ -1644,7 +1567,7 @@
         <v>1267</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
@@ -1653,13 +1576,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>1</v>
@@ -1673,7 +1596,7 @@
         <v>1267</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -1682,13 +1605,13 @@
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>1</v>
@@ -1702,7 +1625,7 @@
         <v>1267</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
@@ -1711,13 +1634,13 @@
         <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>1</v>
@@ -1731,7 +1654,7 @@
         <v>1267</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
@@ -1740,13 +1663,13 @@
         <v>3</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>1</v>
@@ -1760,7 +1683,7 @@
         <v>1267</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -1769,13 +1692,13 @@
         <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>1</v>
@@ -1789,7 +1712,7 @@
         <v>1267</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
@@ -1798,13 +1721,13 @@
         <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>1</v>
@@ -1818,7 +1741,7 @@
         <v>1267</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -1827,13 +1750,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>1</v>
@@ -1847,7 +1770,7 @@
         <v>1267</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -1856,13 +1779,13 @@
         <v>3</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>1</v>
@@ -1876,7 +1799,7 @@
         <v>1267</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
@@ -1885,13 +1808,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>1</v>
@@ -1905,7 +1828,7 @@
         <v>1267</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
@@ -1914,13 +1837,13 @@
         <v>3</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>1</v>
@@ -1934,7 +1857,7 @@
         <v>1267</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -1943,13 +1866,13 @@
         <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>1</v>
@@ -1963,7 +1886,7 @@
         <v>1267</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>4</v>
@@ -1972,13 +1895,13 @@
         <v>3</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>1</v>
@@ -1992,7 +1915,7 @@
         <v>1267</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
@@ -2001,13 +1924,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>1</v>
@@ -2021,7 +1944,7 @@
         <v>1267</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
@@ -2030,13 +1953,13 @@
         <v>3</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>1</v>
@@ -2050,7 +1973,7 @@
         <v>1267</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
@@ -2059,13 +1982,13 @@
         <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>1</v>
@@ -2079,7 +2002,7 @@
         <v>1267</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
@@ -2088,13 +2011,13 @@
         <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>1</v>
@@ -2108,7 +2031,7 @@
         <v>1267</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
@@ -2117,13 +2040,13 @@
         <v>3</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>1</v>
@@ -2137,7 +2060,7 @@
         <v>1267</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
@@ -2146,13 +2069,13 @@
         <v>3</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>1</v>
@@ -2166,7 +2089,7 @@
         <v>1267</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
@@ -2175,13 +2098,13 @@
         <v>3</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>1</v>
@@ -2195,7 +2118,7 @@
         <v>1267</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>4</v>
@@ -2204,13 +2127,13 @@
         <v>3</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>1</v>
@@ -2224,7 +2147,7 @@
         <v>1267</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>4</v>
@@ -2233,13 +2156,13 @@
         <v>3</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>1</v>
@@ -2253,7 +2176,7 @@
         <v>1267</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>4</v>
@@ -2262,13 +2185,13 @@
         <v>3</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>1</v>
@@ -2282,7 +2205,7 @@
         <v>1267</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
@@ -2291,13 +2214,13 @@
         <v>3</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>1</v>
@@ -2311,7 +2234,7 @@
         <v>1267</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>4</v>
@@ -2320,13 +2243,13 @@
         <v>3</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>1</v>
@@ -2340,7 +2263,7 @@
         <v>1267</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
@@ -2349,13 +2272,13 @@
         <v>3</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>1</v>
@@ -2369,7 +2292,7 @@
         <v>1267</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>4</v>
@@ -2378,13 +2301,13 @@
         <v>3</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>1</v>
@@ -2398,7 +2321,7 @@
         <v>1267</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
@@ -2407,13 +2330,13 @@
         <v>3</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>1</v>
@@ -2427,7 +2350,7 @@
         <v>1267</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
@@ -2436,13 +2359,13 @@
         <v>3</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>1</v>
@@ -2456,7 +2379,7 @@
         <v>1267</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
@@ -2465,13 +2388,13 @@
         <v>3</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>1</v>
@@ -2485,7 +2408,7 @@
         <v>1267</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>4</v>
@@ -2494,13 +2417,13 @@
         <v>3</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>1</v>
@@ -2514,7 +2437,7 @@
         <v>1267</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
@@ -2523,13 +2446,13 @@
         <v>3</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>1</v>
@@ -2543,7 +2466,7 @@
         <v>1267</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>4</v>
@@ -2552,13 +2475,13 @@
         <v>3</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>1</v>
@@ -2572,7 +2495,7 @@
         <v>1267</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
@@ -2581,13 +2504,13 @@
         <v>3</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>1</v>
@@ -2601,7 +2524,7 @@
         <v>1267</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
@@ -2610,13 +2533,13 @@
         <v>3</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>1</v>
@@ -2630,7 +2553,7 @@
         <v>1267</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
@@ -2639,13 +2562,13 @@
         <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>1</v>
@@ -2659,7 +2582,7 @@
         <v>1267</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
@@ -2668,13 +2591,13 @@
         <v>3</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>1</v>
@@ -2688,7 +2611,7 @@
         <v>1267</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
@@ -2697,13 +2620,13 @@
         <v>3</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>1</v>
@@ -2717,7 +2640,7 @@
         <v>1267</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>4</v>
@@ -2726,13 +2649,13 @@
         <v>3</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>1</v>
@@ -2746,7 +2669,7 @@
         <v>1267</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>4</v>
@@ -2755,13 +2678,13 @@
         <v>3</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>1</v>
@@ -2775,7 +2698,7 @@
         <v>1267</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>4</v>
@@ -2784,13 +2707,13 @@
         <v>3</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>1</v>
@@ -2804,7 +2727,7 @@
         <v>1267</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
@@ -2813,13 +2736,13 @@
         <v>3</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>1</v>
@@ -2833,7 +2756,7 @@
         <v>1267</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>4</v>
@@ -2842,13 +2765,13 @@
         <v>3</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>1</v>
@@ -2862,7 +2785,7 @@
         <v>1267</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>4</v>
@@ -2871,13 +2794,13 @@
         <v>3</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>1</v>
@@ -2891,22 +2814,22 @@
         <v>1267</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="G67" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>1</v>
@@ -2920,22 +2843,22 @@
         <v>1267</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>1</v>
@@ -2949,22 +2872,22 @@
         <v>1267</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="G69" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>1</v>
@@ -2978,22 +2901,22 @@
         <v>1267</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="G70" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>1</v>
@@ -3007,7 +2930,7 @@
         <v>1267</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>4</v>
@@ -3016,13 +2939,13 @@
         <v>3</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>1</v>
@@ -3036,7 +2959,7 @@
         <v>1267</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>4</v>
@@ -3045,13 +2968,13 @@
         <v>3</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>1</v>
@@ -3065,7 +2988,7 @@
         <v>1267</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>4</v>
@@ -3074,13 +2997,13 @@
         <v>3</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>1</v>
@@ -3094,7 +3017,7 @@
         <v>1267</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
@@ -3103,13 +3026,13 @@
         <v>3</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>1</v>
@@ -3123,7 +3046,7 @@
         <v>1267</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>4</v>
@@ -3132,13 +3055,13 @@
         <v>3</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>1</v>
@@ -3152,7 +3075,7 @@
         <v>1267</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>4</v>
@@ -3161,13 +3084,13 @@
         <v>3</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>1</v>
@@ -3181,7 +3104,7 @@
         <v>1267</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>4</v>
@@ -3190,13 +3113,13 @@
         <v>3</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>1</v>
@@ -3210,7 +3133,7 @@
         <v>1267</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -3219,13 +3142,13 @@
         <v>3</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>1</v>
@@ -3239,7 +3162,7 @@
         <v>1267</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>4</v>
@@ -3248,13 +3171,13 @@
         <v>3</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>1</v>
@@ -3268,7 +3191,7 @@
         <v>1267</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>4</v>
@@ -3277,13 +3200,13 @@
         <v>3</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>1</v>
@@ -3297,7 +3220,7 @@
         <v>1267</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
@@ -3306,13 +3229,13 @@
         <v>3</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>1</v>
@@ -3326,7 +3249,7 @@
         <v>1267</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>4</v>
@@ -3335,13 +3258,13 @@
         <v>3</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>1</v>
@@ -3355,7 +3278,7 @@
         <v>1267</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>4</v>
@@ -3364,13 +3287,13 @@
         <v>3</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>1</v>
@@ -3384,7 +3307,7 @@
         <v>1267</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>4</v>
@@ -3393,13 +3316,13 @@
         <v>3</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>1</v>
@@ -3413,7 +3336,7 @@
         <v>1267</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>4</v>
@@ -3422,13 +3345,13 @@
         <v>3</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>1</v>
@@ -3442,7 +3365,7 @@
         <v>1267</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>4</v>
@@ -3451,13 +3374,13 @@
         <v>3</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>1</v>
@@ -3471,7 +3394,7 @@
         <v>1267</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>4</v>
@@ -3480,13 +3403,13 @@
         <v>3</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>1</v>
@@ -3500,7 +3423,7 @@
         <v>1267</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
@@ -3509,13 +3432,13 @@
         <v>3</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>1</v>
@@ -3529,7 +3452,7 @@
         <v>1267</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>4</v>
@@ -3538,13 +3461,13 @@
         <v>3</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>1</v>
@@ -3558,7 +3481,7 @@
         <v>1267</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>4</v>
@@ -3567,13 +3490,13 @@
         <v>3</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>1</v>
@@ -3587,7 +3510,7 @@
         <v>1267</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>4</v>
@@ -3596,13 +3519,13 @@
         <v>3</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>1</v>
@@ -3616,7 +3539,7 @@
         <v>1267</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>4</v>
@@ -3625,13 +3548,13 @@
         <v>3</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>1</v>
@@ -3645,7 +3568,7 @@
         <v>1267</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
@@ -3654,13 +3577,13 @@
         <v>3</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>1</v>
@@ -3674,7 +3597,7 @@
         <v>1267</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>4</v>
@@ -3683,13 +3606,13 @@
         <v>3</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>1</v>
@@ -3703,7 +3626,7 @@
         <v>1267</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>4</v>
@@ -3712,13 +3635,13 @@
         <v>3</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>1</v>
@@ -3732,7 +3655,7 @@
         <v>1267</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>4</v>
@@ -3741,13 +3664,13 @@
         <v>3</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>1</v>
@@ -3761,7 +3684,7 @@
         <v>1267</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>4</v>
@@ -3770,13 +3693,13 @@
         <v>3</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>1</v>
@@ -3790,7 +3713,7 @@
         <v>1267</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>4</v>
@@ -3799,13 +3722,13 @@
         <v>3</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>1</v>
@@ -3819,7 +3742,7 @@
         <v>1267</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>4</v>
@@ -3828,13 +3751,13 @@
         <v>3</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>1</v>
@@ -3848,7 +3771,7 @@
         <v>1267</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>4</v>
@@ -3857,13 +3780,13 @@
         <v>3</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>1</v>
@@ -3877,7 +3800,7 @@
         <v>1267</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>4</v>
@@ -3886,13 +3809,13 @@
         <v>3</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>1</v>
@@ -3906,7 +3829,7 @@
         <v>1267</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
@@ -3915,13 +3838,13 @@
         <v>3</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>1</v>
@@ -3935,7 +3858,7 @@
         <v>1267</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>4</v>
@@ -3944,13 +3867,13 @@
         <v>3</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>1</v>
@@ -3964,7 +3887,7 @@
         <v>1267</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>4</v>
@@ -3973,13 +3896,13 @@
         <v>3</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>1</v>
@@ -3993,7 +3916,7 @@
         <v>1267</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>4</v>
@@ -4002,13 +3925,13 @@
         <v>3</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>1</v>
@@ -4022,7 +3945,7 @@
         <v>1267</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
@@ -4031,13 +3954,13 @@
         <v>3</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>1</v>
@@ -4051,7 +3974,7 @@
         <v>1267</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>4</v>
@@ -4060,13 +3983,13 @@
         <v>3</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>1</v>
@@ -4080,7 +4003,7 @@
         <v>1267</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>4</v>
@@ -4089,13 +4012,13 @@
         <v>3</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>1</v>
@@ -4109,7 +4032,7 @@
         <v>1267</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>4</v>
@@ -4118,13 +4041,13 @@
         <v>3</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>1</v>
@@ -4138,7 +4061,7 @@
         <v>1267</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>4</v>
@@ -4147,13 +4070,13 @@
         <v>3</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>1</v>
@@ -4167,7 +4090,7 @@
         <v>1267</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
@@ -4176,13 +4099,13 @@
         <v>3</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>1</v>
@@ -4196,7 +4119,7 @@
         <v>1267</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>4</v>
@@ -4205,13 +4128,13 @@
         <v>3</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>1</v>
@@ -4225,7 +4148,7 @@
         <v>1267</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>4</v>
@@ -4234,13 +4157,13 @@
         <v>3</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>1</v>
@@ -4254,7 +4177,7 @@
         <v>1267</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>4</v>
@@ -4263,13 +4186,13 @@
         <v>3</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>1</v>
@@ -4283,7 +4206,7 @@
         <v>1267</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>4</v>
@@ -4292,13 +4215,13 @@
         <v>3</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>1</v>
@@ -4312,7 +4235,7 @@
         <v>1267</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>4</v>
@@ -4321,13 +4244,13 @@
         <v>3</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>1</v>
@@ -4341,7 +4264,7 @@
         <v>1267</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>4</v>
@@ -4350,13 +4273,13 @@
         <v>3</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>1</v>
@@ -4370,7 +4293,7 @@
         <v>1267</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
@@ -4379,13 +4302,13 @@
         <v>3</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>1</v>
@@ -4399,7 +4322,7 @@
         <v>1267</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>4</v>
@@ -4408,13 +4331,13 @@
         <v>3</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>1</v>
@@ -4428,7 +4351,7 @@
         <v>1267</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>4</v>
@@ -4437,13 +4360,13 @@
         <v>3</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>1</v>
@@ -4457,7 +4380,7 @@
         <v>1267</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>4</v>
@@ -4466,13 +4389,13 @@
         <v>3</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>1</v>
@@ -4486,7 +4409,7 @@
         <v>1267</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>4</v>
@@ -4495,13 +4418,13 @@
         <v>3</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>1</v>
@@ -4515,7 +4438,7 @@
         <v>1267</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>4</v>
@@ -4524,13 +4447,13 @@
         <v>3</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>1</v>
@@ -4544,7 +4467,7 @@
         <v>1267</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>4</v>
@@ -4553,13 +4476,13 @@
         <v>3</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>1</v>
@@ -4573,7 +4496,7 @@
         <v>1267</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>4</v>
@@ -4582,7 +4505,7 @@
         <v>3</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -4598,7 +4521,7 @@
         <v>1267</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>4</v>
@@ -4607,13 +4530,13 @@
         <v>3</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>1</v>
@@ -4627,7 +4550,7 @@
         <v>1267</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>4</v>
@@ -4636,7 +4559,7 @@
         <v>3</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -4652,7 +4575,7 @@
         <v>1267</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>4</v>
@@ -4661,7 +4584,7 @@
         <v>3</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -4677,7 +4600,7 @@
         <v>1267</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>4</v>
@@ -4686,7 +4609,7 @@
         <v>3</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -4702,7 +4625,7 @@
         <v>1267</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>4</v>
@@ -4711,7 +4634,7 @@
         <v>3</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -4727,7 +4650,7 @@
         <v>1267</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>4</v>
@@ -4736,13 +4659,13 @@
         <v>3</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>1</v>
@@ -4756,7 +4679,7 @@
         <v>1267</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>4</v>
@@ -4781,7 +4704,7 @@
         <v>1318</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>4</v>
@@ -4790,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -4806,7 +4729,7 @@
         <v>1318</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>4</v>
@@ -4815,13 +4738,13 @@
         <v>3</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>1</v>
@@ -4835,7 +4758,7 @@
         <v>1318</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>4</v>
@@ -4844,13 +4767,13 @@
         <v>3</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>1</v>
@@ -4864,7 +4787,7 @@
         <v>1318</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>4</v>
@@ -4873,13 +4796,13 @@
         <v>3</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>1</v>
@@ -4893,7 +4816,7 @@
         <v>1318</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>4</v>
@@ -4902,13 +4825,13 @@
         <v>3</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>1</v>
@@ -4922,7 +4845,7 @@
         <v>1318</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>4</v>
@@ -4931,7 +4854,7 @@
         <v>3</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -4947,7 +4870,7 @@
         <v>1318</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
@@ -4956,7 +4879,7 @@
         <v>3</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -4972,7 +4895,7 @@
         <v>1318</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
@@ -4981,7 +4904,7 @@
         <v>3</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -4997,7 +4920,7 @@
         <v>1318</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
@@ -5006,7 +4929,7 @@
         <v>3</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
@@ -5022,7 +4945,7 @@
         <v>1318</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>4</v>
@@ -5031,7 +4954,7 @@
         <v>3</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -5047,7 +4970,7 @@
         <v>1318</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
@@ -5056,7 +4979,7 @@
         <v>3</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -5072,7 +4995,7 @@
         <v>1318</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>4</v>
@@ -5081,7 +5004,7 @@
         <v>3</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -5097,7 +5020,7 @@
         <v>1318</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>4</v>
@@ -5122,7 +5045,7 @@
         <v>1606</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>4</v>
@@ -5131,7 +5054,7 @@
         <v>3</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -5147,7 +5070,7 @@
         <v>1606</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>4</v>
@@ -5156,13 +5079,13 @@
         <v>3</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>1</v>
@@ -5176,7 +5099,7 @@
         <v>1606</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
@@ -5185,13 +5108,13 @@
         <v>3</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>1</v>
@@ -5205,7 +5128,7 @@
         <v>1606</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>4</v>
@@ -5214,13 +5137,13 @@
         <v>3</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>1</v>
@@ -5234,7 +5157,7 @@
         <v>1606</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
@@ -5243,13 +5166,13 @@
         <v>3</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>1</v>
@@ -5263,7 +5186,7 @@
         <v>1606</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>4</v>
@@ -5272,7 +5195,7 @@
         <v>3</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -5288,7 +5211,7 @@
         <v>1606</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>4</v>
@@ -5297,7 +5220,7 @@
         <v>3</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -5313,7 +5236,7 @@
         <v>1606</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
@@ -5322,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -5338,7 +5261,7 @@
         <v>1606</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>4</v>
@@ -5347,7 +5270,7 @@
         <v>3</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -5363,7 +5286,7 @@
         <v>1606</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
@@ -5372,7 +5295,7 @@
         <v>3</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -5388,7 +5311,7 @@
         <v>1606</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
@@ -5397,7 +5320,7 @@
         <v>3</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -5413,7 +5336,7 @@
         <v>1606</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>4</v>
@@ -5422,7 +5345,7 @@
         <v>3</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -5438,7 +5361,7 @@
         <v>1606</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>4</v>
@@ -5463,7 +5386,7 @@
         <v>2143</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
@@ -5472,7 +5395,7 @@
         <v>3</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -5488,7 +5411,7 @@
         <v>2143</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
@@ -5497,13 +5420,13 @@
         <v>3</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>1</v>
@@ -5517,7 +5440,7 @@
         <v>2143</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
@@ -5526,13 +5449,13 @@
         <v>3</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>1</v>
@@ -5546,7 +5469,7 @@
         <v>2143</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>4</v>
@@ -5555,13 +5478,13 @@
         <v>3</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>1</v>
@@ -5575,7 +5498,7 @@
         <v>2143</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>4</v>
@@ -5584,13 +5507,13 @@
         <v>3</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>1</v>
@@ -5604,7 +5527,7 @@
         <v>2143</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>4</v>
@@ -5613,7 +5536,7 @@
         <v>3</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -5629,7 +5552,7 @@
         <v>2143</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>4</v>
@@ -5638,7 +5561,7 @@
         <v>3</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -5654,7 +5577,7 @@
         <v>2143</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>4</v>
@@ -5663,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -5679,7 +5602,7 @@
         <v>2143</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>4</v>
@@ -5688,7 +5611,7 @@
         <v>3</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -5704,7 +5627,7 @@
         <v>2143</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>4</v>
@@ -5713,7 +5636,7 @@
         <v>3</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -5729,7 +5652,7 @@
         <v>2143</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>4</v>
@@ -5738,7 +5661,7 @@
         <v>3</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -5754,7 +5677,7 @@
         <v>2143</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>4</v>
@@ -5779,16 +5702,16 @@
         <v>2247</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -5804,16 +5727,16 @@
         <v>2247</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -5829,16 +5752,16 @@
         <v>2247</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -5854,16 +5777,16 @@
         <v>2247</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -5879,16 +5802,16 @@
         <v>2247</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -5904,22 +5827,22 @@
         <v>2248</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>1</v>
@@ -5933,22 +5856,22 @@
         <v>2248</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>1</v>
@@ -5962,22 +5885,22 @@
         <v>2248</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>1</v>
@@ -5991,22 +5914,22 @@
         <v>2248</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>1</v>
@@ -6020,22 +5943,22 @@
         <v>2248</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>1</v>
@@ -6049,22 +5972,22 @@
         <v>2248</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="H181" s="2" t="s">
         <v>1</v>
@@ -6078,22 +6001,22 @@
         <v>2248</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>1</v>
@@ -6107,22 +6030,22 @@
         <v>2248</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>1</v>
@@ -6136,22 +6059,22 @@
         <v>2248</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>1</v>
@@ -6165,22 +6088,22 @@
         <v>2248</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>1</v>
@@ -6194,22 +6117,22 @@
         <v>2248</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>1</v>
@@ -6223,22 +6146,22 @@
         <v>2248</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>1</v>
@@ -6252,22 +6175,22 @@
         <v>2248</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>1</v>
@@ -6281,22 +6204,22 @@
         <v>2248</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>1</v>
@@ -6310,22 +6233,22 @@
         <v>2248</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>1</v>
@@ -6339,22 +6262,22 @@
         <v>2248</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>1</v>
@@ -6368,22 +6291,22 @@
         <v>2248</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>1</v>
@@ -6397,22 +6320,22 @@
         <v>2248</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>1</v>
@@ -6426,22 +6349,22 @@
         <v>2248</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>1</v>
@@ -6455,22 +6378,22 @@
         <v>2248</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>1</v>
@@ -6484,22 +6407,22 @@
         <v>2248</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>1</v>
@@ -6513,22 +6436,22 @@
         <v>2248</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>1</v>
@@ -6542,22 +6465,22 @@
         <v>2248</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G198" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>1</v>
@@ -6571,22 +6494,22 @@
         <v>2248</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G199" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>1</v>
@@ -6595,2482 +6518,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
-        <v>2248</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I200" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
-        <v>2250</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I201" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>2250</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I202" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <v>2250</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I203" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
-        <v>2250</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
-        <v>2250</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I205" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
-        <v>2251</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
-        <v>2251</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I207" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
-        <v>2251</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H208" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I208" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
-        <v>2251</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I209" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
-        <v>2251</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
-        <v>2251</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I211" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
-        <v>2251</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
-        <v>2826</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I213" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
-        <v>2826</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
-        <v>2826</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I215" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
-        <v>2826</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I216" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
-        <v>2826</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I217" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
-        <v>2826</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I218" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
-        <v>2826</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I219" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
-        <v>2826</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I220" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
-        <v>2826</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I221" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
-        <v>2826</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I222" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
-        <v>2826</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I223" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
-        <v>3075</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I224" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
-        <v>3075</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I225" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
-        <v>3075</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I226" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
-        <v>3075</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I227" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
-        <v>3075</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I228" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
-        <v>3075</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I229" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
-        <v>3075</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I230" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
-        <v>3075</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I231" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
-        <v>3075</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I232" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
-        <v>3075</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I233" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
-        <v>3075</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I234" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
-        <v>3719</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I235" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
-        <v>3719</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I236" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
-        <v>3719</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I237" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
-        <v>3719</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I238" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
-        <v>3719</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I239" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
-        <v>3719</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I240" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
-        <v>3719</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I241" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
-        <v>3719</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I242" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
-        <v>3829</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I243" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
-        <v>3829</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I244" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
-        <v>3829</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I245" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
-        <v>3829</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I246" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
-        <v>3829</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I247" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
-        <v>3829</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F248" s="2"/>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I248" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
-        <v>3829</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F249" s="2"/>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I249" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
-        <v>3829</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I250" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
-        <v>3829</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I251" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
-        <v>3829</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I252" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
-        <v>3829</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I253" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
-        <v>4143</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I254" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
-        <v>4143</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I255" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
-        <v>4143</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I256" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
-        <v>4143</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I257" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
-        <v>4143</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I258" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
-        <v>4143</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F259" s="2"/>
-      <c r="G259" s="2"/>
-      <c r="H259" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I259" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
-        <v>4143</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I260" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
-        <v>4143</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F261" s="2"/>
-      <c r="G261" s="2"/>
-      <c r="H261" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I261" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
-        <v>4421</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I262" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
-        <v>4421</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I263" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
-        <v>4421</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I264" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
-        <v>4421</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F265" s="2"/>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I265" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
-        <v>4421</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I266" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
-        <v>4421</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I267" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
-        <v>4421</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I268" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
-        <v>4676</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I269" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
-        <v>4676</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I270" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
-        <v>5199</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I271" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
-        <v>5199</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G272" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H272" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I272" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
-        <v>5199</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G273" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H273" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I273" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
-        <v>5199</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I274" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
-        <v>5199</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F275" s="2"/>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I275" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
-        <v>5199</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I276" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
-        <v>5199</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I277" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
-        <v>5199</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F278" s="2"/>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I278" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
-        <v>5209</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F279" s="2"/>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I279" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
-        <v>5209</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F280" s="2"/>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I280" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
-        <v>5209</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F281" s="2"/>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I281" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
-        <v>5209</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I282" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
-        <v>5209</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I283" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
-        <v>5209</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F284" s="2"/>
-      <c r="G284" s="2"/>
-      <c r="H284" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I284" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
-        <v>5209</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F285" s="2"/>
-      <c r="G285" s="2"/>
-      <c r="H285" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I285" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
-        <v>5209</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F286" s="2"/>
-      <c r="G286" s="2"/>
-      <c r="H286" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I286" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
-        <v>5209</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I287" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
-        <v>5209</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F288" s="2"/>
-      <c r="G288" s="2"/>
-      <c r="H288" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I288" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
-        <v>5210</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F289" s="2"/>
-      <c r="G289" s="2"/>
-      <c r="H289" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I289" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
-        <v>5210</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F290" s="2"/>
-      <c r="G290" s="2"/>
-      <c r="H290" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I290" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
-        <v>5210</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F291" s="2"/>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I291" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="2">
-        <v>5210</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F292" s="2"/>
-      <c r="G292" s="2"/>
-      <c r="H292" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I292" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A293" s="2">
-        <v>5210</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F293" s="2"/>
-      <c r="G293" s="2"/>
-      <c r="H293" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I293" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
-        <v>5210</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E294" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F294" s="2"/>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I294" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
-        <v>5210</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E295" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F295" s="2"/>
-      <c r="G295" s="2"/>
-      <c r="H295" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I295" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
-        <v>5210</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E296" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F296" s="2"/>
-      <c r="G296" s="2"/>
-      <c r="H296" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I296" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
-        <v>5210</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F297" s="2"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I297" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I297" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I199" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>